--- a/data/seddataR.xlsx
+++ b/data/seddataR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahferraro/Desktop/Masters/Datasheets/Lab Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1760" documentId="13_ncr:1_{E99D6FA8-A0A2-FD43-B006-A811E6300C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E8C9734-6D47-43EE-B209-3C9796B62F6D}"/>
+  <xr:revisionPtr revIDLastSave="1912" documentId="13_ncr:1_{E99D6FA8-A0A2-FD43-B006-A811E6300C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A97BC873-CC09-460C-A515-A1F9AD3943E5}"/>
   <bookViews>
     <workbookView xWindow="13180" yWindow="500" windowWidth="15240" windowHeight="16440" xr2:uid="{B660C8A4-04E2-6741-A994-6DCDE6E9B9BE}"/>
   </bookViews>
@@ -1664,18 +1664,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U155" sqref="U155"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="9.21875" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="20" width="8.88671875" customWidth="1"/>
     <col min="21" max="21" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1801,6 +1803,9 @@
         <f>(N2+Q2)*1000</f>
         <v>12.019569914837497</v>
       </c>
+      <c r="U2">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -1859,6 +1864,9 @@
         <f t="shared" ref="R3:R66" si="1">(N3+Q3)*1000</f>
         <v>10.693133244110436</v>
       </c>
+      <c r="U3">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
@@ -1917,6 +1925,9 @@
         <f t="shared" si="1"/>
         <v>12.442702561180971</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
@@ -1975,6 +1986,9 @@
         <f t="shared" si="1"/>
         <v>11.256998915413103</v>
       </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -2033,6 +2047,9 @@
         <f t="shared" si="1"/>
         <v>23.580213294700794</v>
       </c>
+      <c r="U6">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -2091,6 +2108,9 @@
         <f t="shared" si="1"/>
         <v>17.757301256774063</v>
       </c>
+      <c r="U7">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
@@ -2149,6 +2169,9 @@
         <f t="shared" si="1"/>
         <v>11.981026691486148</v>
       </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
@@ -2207,6 +2230,9 @@
         <f t="shared" si="1"/>
         <v>13.683720806454366</v>
       </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -2265,6 +2291,9 @@
         <f t="shared" si="1"/>
         <v>14.141542031212495</v>
       </c>
+      <c r="U10">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
@@ -2323,6 +2352,9 @@
         <f t="shared" si="1"/>
         <v>17.070131144132326</v>
       </c>
+      <c r="U11">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
@@ -2381,6 +2413,9 @@
         <f t="shared" si="1"/>
         <v>13.530060749785383</v>
       </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
@@ -2439,6 +2474,9 @@
         <f t="shared" si="1"/>
         <v>12.422871751840109</v>
       </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
@@ -2467,6 +2505,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="U14" s="7">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="15" spans="1:21" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
@@ -2495,6 +2536,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="U15" s="7">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1">
       <c r="A16" s="7" t="s">
@@ -2523,8 +2567,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="7" customFormat="1">
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
@@ -2551,8 +2598,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="7" customFormat="1">
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="7" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -2579,8 +2629,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" s="7" customFormat="1">
+      <c r="U18" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
         <v>60</v>
       </c>
@@ -2607,8 +2660,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="7" customFormat="1">
+      <c r="U19" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -2635,8 +2691,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="7" customFormat="1">
+      <c r="U20" s="7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2663,8 +2722,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="7" customFormat="1">
+      <c r="U21" s="7">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +2753,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="7" customFormat="1">
+      <c r="U22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="7" customFormat="1">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -2719,8 +2784,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="7" customFormat="1">
+      <c r="U23" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
         <v>70</v>
       </c>
@@ -2747,8 +2815,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" s="7" customFormat="1">
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
         <v>72</v>
       </c>
@@ -2775,8 +2846,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="U25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2803,8 +2877,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="U26">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2831,8 +2908,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="U27">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2859,8 +2939,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -2887,8 +2970,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2915,8 +3001,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="U30">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -2943,8 +3032,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="U31">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -2971,8 +3063,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -2999,8 +3094,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -3027,8 +3125,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="U34">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -3055,8 +3156,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="U35">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -3083,8 +3187,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -3111,8 +3218,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -3140,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -3168,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -3196,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -3224,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -3252,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -3280,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -3308,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -3336,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -3364,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -3392,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3420,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -3448,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -3506,7 +3616,7 @@
         <v>15.224634170313246</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -3564,7 +3674,7 @@
         <v>15.174663824747237</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -3621,8 +3731,11 @@
         <f t="shared" si="1"/>
         <v>16.515425581797576</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -3679,8 +3792,11 @@
         <f t="shared" si="1"/>
         <v>14.517991063668411</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -3738,7 +3854,7 @@
         <v>19.779258016856975</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -3796,7 +3912,7 @@
         <v>18.528362265451836</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -3853,8 +3969,11 @@
         <f t="shared" si="1"/>
         <v>15.705963655322536</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -3911,8 +4030,11 @@
         <f t="shared" si="1"/>
         <v>16.228675984459809</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -3970,7 +4092,7 @@
         <v>23.086316176500326</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>140</v>
       </c>
@@ -4028,7 +4150,7 @@
         <v>22.407243659235068</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4085,8 +4207,11 @@
         <f t="shared" si="1"/>
         <v>16.447071087959632</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -4143,8 +4268,11 @@
         <f t="shared" si="1"/>
         <v>61.780061410659577</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>146</v>
       </c>
@@ -4201,8 +4329,11 @@
         <f t="shared" si="1"/>
         <v>13.395498196532772</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="U62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -4259,8 +4390,11 @@
         <f t="shared" si="1"/>
         <v>18.542624598424464</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="U63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -4317,8 +4451,11 @@
         <f t="shared" si="1"/>
         <v>19.074559617457915</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -4375,8 +4512,11 @@
         <f t="shared" si="1"/>
         <v>19.070543258402306</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -4433,8 +4573,11 @@
         <f t="shared" si="1"/>
         <v>15.828090810948616</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="U66">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>157</v>
       </c>
@@ -4491,8 +4634,11 @@
         <f t="shared" ref="R67:R130" si="3">(N67+Q67)*1000</f>
         <v>22.667788547343847</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="U67">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -4549,8 +4695,11 @@
         <f t="shared" si="3"/>
         <v>22.161047958545272</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -4607,8 +4756,11 @@
         <f t="shared" si="3"/>
         <v>17.844819038306856</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -4665,8 +4817,11 @@
         <f t="shared" si="3"/>
         <v>15.261482604896422</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="U70">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -4723,8 +4878,11 @@
         <f t="shared" si="3"/>
         <v>24.211920736629576</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="U71">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -4781,8 +4939,11 @@
         <f t="shared" si="3"/>
         <v>22.966964870082439</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="U72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -4839,8 +5000,11 @@
         <f t="shared" si="3"/>
         <v>19.406380025639766</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="U73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -4897,8 +5061,11 @@
         <f t="shared" si="3"/>
         <v>16.394312526136602</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="U74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -4955,8 +5122,11 @@
         <f t="shared" si="3"/>
         <v>21.204995975335947</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="U75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -5013,8 +5183,11 @@
         <f t="shared" si="3"/>
         <v>20.762666490621086</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="U76">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>177</v>
       </c>
@@ -5071,8 +5244,11 @@
         <f t="shared" si="3"/>
         <v>18.474343624084906</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="U77">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -5129,8 +5305,11 @@
         <f t="shared" si="3"/>
         <v>15.761446642684765</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="U78">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -5187,8 +5366,11 @@
         <f t="shared" si="3"/>
         <v>19.489366095506806</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="U79">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -5245,8 +5427,11 @@
         <f t="shared" si="3"/>
         <v>19.995607272317091</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -5303,8 +5488,11 @@
         <f t="shared" si="3"/>
         <v>19.541146330594007</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -5361,8 +5549,11 @@
         <f t="shared" si="3"/>
         <v>15.03169313683229</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="U82">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -5419,8 +5610,11 @@
         <f t="shared" si="3"/>
         <v>21.014437233226694</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="U83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -5477,8 +5671,11 @@
         <f t="shared" si="3"/>
         <v>14.227804443511527</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="U84">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -5535,8 +5732,11 @@
         <f t="shared" si="3"/>
         <v>16.309483756813371</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="U85">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
         <v>195</v>
       </c>
@@ -5563,8 +5763,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="U86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -5591,8 +5794,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="U87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -5619,8 +5825,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="U88">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -5647,8 +5856,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="U89">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -5675,8 +5887,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="U90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -5703,8 +5918,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="U91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -5731,8 +5949,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="U92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -5759,8 +5980,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="U93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -5787,8 +6011,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="U94">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -5815,8 +6042,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="U95">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -5843,8 +6073,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="U96">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -5871,8 +6104,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="U97">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>219</v>
       </c>
@@ -5900,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>221</v>
       </c>
@@ -5928,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -5956,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>225</v>
       </c>
@@ -5984,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -6012,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>229</v>
       </c>
@@ -6040,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
         <v>231</v>
       </c>
@@ -6068,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -6096,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>235</v>
       </c>
@@ -6124,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -6152,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>239</v>
       </c>
@@ -6180,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>241</v>
       </c>
@@ -6208,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -6265,8 +6501,11 @@
         <f t="shared" si="3"/>
         <v>21.292269027950006</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="U110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>245</v>
       </c>
@@ -6323,8 +6562,11 @@
         <f t="shared" si="3"/>
         <v>20.835809433625421</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="U111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -6381,8 +6623,11 @@
         <f t="shared" si="3"/>
         <v>25.056412676335739</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="U112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -6439,8 +6684,11 @@
         <f t="shared" si="3"/>
         <v>23.359233596299006</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="U113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>251</v>
       </c>
@@ -6497,8 +6745,11 @@
         <f t="shared" si="3"/>
         <v>23.367134334277537</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="U114">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115" t="s">
         <v>251</v>
       </c>
@@ -6555,8 +6806,11 @@
         <f t="shared" si="3"/>
         <v>22.186587831400914</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="U115">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
         <v>254</v>
       </c>
@@ -6613,8 +6867,11 @@
         <f t="shared" si="3"/>
         <v>24.714715922087663</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="U116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -6671,8 +6928,11 @@
         <f t="shared" si="3"/>
         <v>20.765938091956929</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="U117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" t="s">
         <v>258</v>
       </c>
@@ -6729,8 +6989,11 @@
         <f t="shared" si="3"/>
         <v>53.344602470024505</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="U118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" t="s">
         <v>260</v>
       </c>
@@ -6787,8 +7050,11 @@
         <f t="shared" si="3"/>
         <v>17.907888127955829</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="U119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120" t="s">
         <v>262</v>
       </c>
@@ -6845,8 +7111,11 @@
         <f t="shared" si="3"/>
         <v>22.919636988240782</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="U120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121" t="s">
         <v>264</v>
       </c>
@@ -6903,8 +7172,11 @@
         <f t="shared" si="3"/>
         <v>24.984397789482792</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="U121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -6961,8 +7233,11 @@
         <f t="shared" si="3"/>
         <v>3.5083630440276745</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="U122">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123" t="s">
         <v>269</v>
       </c>
@@ -7019,8 +7294,11 @@
         <f t="shared" si="3"/>
         <v>3.9102531230094715</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="U123">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124" t="s">
         <v>271</v>
       </c>
@@ -7078,7 +7356,7 @@
         <v>3.257669987618331</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:21">
       <c r="A125" t="s">
         <v>273</v>
       </c>
@@ -7136,7 +7414,7 @@
         <v>4.4722111972656213</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:21">
       <c r="A126" t="s">
         <v>275</v>
       </c>
@@ -7193,8 +7471,11 @@
         <f t="shared" si="3"/>
         <v>4.4665675941863352</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="U126">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127" t="s">
         <v>277</v>
       </c>
@@ -7251,8 +7532,11 @@
         <f t="shared" si="3"/>
         <v>5.0321927327758225</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="U127">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128" t="s">
         <v>279</v>
       </c>
@@ -7309,8 +7593,11 @@
         <f t="shared" si="3"/>
         <v>3.7296015927848822</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="U128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129" t="s">
         <v>281</v>
       </c>
@@ -7367,8 +7654,11 @@
         <f t="shared" si="3"/>
         <v>5.3032224592682882</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="U129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130" t="s">
         <v>283</v>
       </c>
@@ -7425,8 +7715,11 @@
         <f t="shared" si="3"/>
         <v>5.9779098795152539</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="U130">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131" t="s">
         <v>285</v>
       </c>
@@ -7483,8 +7776,11 @@
         <f t="shared" ref="R131:R181" si="5">(N131+Q131)*1000</f>
         <v>4.3304547809483891</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="U131">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132" t="s">
         <v>287</v>
       </c>
@@ -7541,8 +7837,11 @@
         <f t="shared" si="5"/>
         <v>4.0288932532029351</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="U132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133" t="s">
         <v>289</v>
       </c>
@@ -7599,8 +7898,11 @@
         <f t="shared" si="5"/>
         <v>3.3527437113140235</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="U133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" t="s">
         <v>291</v>
       </c>
@@ -7657,8 +7959,11 @@
         <f t="shared" si="5"/>
         <v>11.752559991393893</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="U134">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -7715,8 +8020,11 @@
         <f t="shared" si="5"/>
         <v>4.9536825231565818</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="U135">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" t="s">
         <v>295</v>
       </c>
@@ -7773,8 +8081,11 @@
         <f t="shared" si="5"/>
         <v>3.4897693883341696</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="U136">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -7831,8 +8142,11 @@
         <f t="shared" si="5"/>
         <v>4.4694221863594823</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="U137">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138" t="s">
         <v>299</v>
       </c>
@@ -7889,8 +8203,11 @@
         <f t="shared" si="5"/>
         <v>5.2519687945824121</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="U138">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139" t="s">
         <v>301</v>
       </c>
@@ -7947,8 +8264,11 @@
         <f t="shared" si="5"/>
         <v>4.8037371502223127</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="U139">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140" t="s">
         <v>303</v>
       </c>
@@ -8005,8 +8325,11 @@
         <f t="shared" si="5"/>
         <v>3.3864738017458653</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="U140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -8063,8 +8386,11 @@
         <f t="shared" si="5"/>
         <v>4.2088732582635355</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="U141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142" t="s">
         <v>307</v>
       </c>
@@ -8121,8 +8447,11 @@
         <f t="shared" si="5"/>
         <v>4.7270960415220493</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="U142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" t="s">
         <v>309</v>
       </c>
@@ -8179,8 +8508,11 @@
         <f t="shared" si="5"/>
         <v>4.9201487087035476</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="U143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144" t="s">
         <v>311</v>
       </c>
@@ -8237,8 +8569,11 @@
         <f t="shared" si="5"/>
         <v>4.1252276373926087</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="U144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -8295,8 +8630,11 @@
         <f t="shared" si="5"/>
         <v>4.0348237003679115</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="U145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -8335,8 +8673,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="U146">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -8375,8 +8716,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="U147">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148" t="s">
         <v>319</v>
       </c>
@@ -8415,8 +8759,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="U148">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149" t="s">
         <v>321</v>
       </c>
@@ -8455,8 +8802,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="U149">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150" t="s">
         <v>323</v>
       </c>
@@ -8495,8 +8845,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="U150">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151" t="s">
         <v>325</v>
       </c>
@@ -8535,8 +8888,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="U151">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152" t="s">
         <v>327</v>
       </c>
@@ -8575,8 +8931,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="U152">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -8615,8 +8974,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="U153">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154" t="s">
         <v>331</v>
       </c>
@@ -8655,8 +9017,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="U154">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155" t="s">
         <v>333</v>
       </c>
@@ -8695,8 +9060,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="U155">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156" t="s">
         <v>335</v>
       </c>
@@ -8735,8 +9103,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="U156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157" t="s">
         <v>337</v>
       </c>
@@ -8775,8 +9146,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="U157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158" t="s">
         <v>339</v>
       </c>
@@ -8804,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:21">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -8832,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:21">
       <c r="A160" t="s">
         <v>343</v>
       </c>
@@ -8860,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:21">
       <c r="A161" t="s">
         <v>345</v>
       </c>
@@ -8888,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:21">
       <c r="A162" t="s">
         <v>347</v>
       </c>
@@ -8916,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:21">
       <c r="A163" t="s">
         <v>349</v>
       </c>
@@ -8944,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:21">
       <c r="A164" t="s">
         <v>351</v>
       </c>
@@ -8972,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:21">
       <c r="A165" t="s">
         <v>353</v>
       </c>
@@ -9000,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:21">
       <c r="A166" t="s">
         <v>355</v>
       </c>
@@ -9028,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:21">
       <c r="A167" t="s">
         <v>357</v>
       </c>
@@ -9056,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:21">
       <c r="A168" t="s">
         <v>359</v>
       </c>
@@ -9084,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:21">
       <c r="A169" t="s">
         <v>361</v>
       </c>
@@ -9112,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:21">
       <c r="A170" t="s">
         <v>363</v>
       </c>
@@ -9169,8 +9543,11 @@
         <f t="shared" si="5"/>
         <v>7.3909295334178751</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="U170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171" t="s">
         <v>365</v>
       </c>
@@ -9227,8 +9604,11 @@
         <f t="shared" si="5"/>
         <v>7.7677214575246349</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="U171">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172" t="s">
         <v>367</v>
       </c>
@@ -9285,8 +9665,11 @@
         <f t="shared" si="5"/>
         <v>6.9422992248107693</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="U172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173" t="s">
         <v>369</v>
       </c>
@@ -9343,8 +9726,11 @@
         <f t="shared" si="5"/>
         <v>7.4496181731349242</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174" t="s">
         <v>371</v>
       </c>
@@ -9401,8 +9787,11 @@
         <f t="shared" si="5"/>
         <v>7.9566887159066999</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="U174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -9459,8 +9848,11 @@
         <f t="shared" si="5"/>
         <v>5.787126379915783</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="U175">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176" t="s">
         <v>375</v>
       </c>
@@ -9517,8 +9909,11 @@
         <f t="shared" si="5"/>
         <v>4.3740704123331202</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="U176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177" t="s">
         <v>377</v>
       </c>
@@ -9575,8 +9970,11 @@
         <f t="shared" si="5"/>
         <v>5.2759007884836757</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="U177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178" t="s">
         <v>379</v>
       </c>
@@ -9633,8 +10031,11 @@
         <f t="shared" si="5"/>
         <v>3.7144724784139824</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="U178">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179" t="s">
         <v>381</v>
       </c>
@@ -9691,8 +10092,11 @@
         <f t="shared" si="5"/>
         <v>5.9516064098671295</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="U179">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180" t="s">
         <v>383</v>
       </c>
@@ -9749,8 +10153,11 @@
         <f t="shared" si="5"/>
         <v>6.7709326001149819</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="U180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181" t="s">
         <v>385</v>
       </c>
@@ -9807,48 +10214,51 @@
         <f t="shared" si="5"/>
         <v>4.0453218759582272</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="U181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:21">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:21">
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:21">
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:21">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:21">
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:21">
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:21">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:21">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:21">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:21">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>

--- a/data/seddataR.xlsx
+++ b/data/seddataR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahferraro/Desktop/Masters/Datasheets/Lab Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1912" documentId="13_ncr:1_{E99D6FA8-A0A2-FD43-B006-A811E6300C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A97BC873-CC09-460C-A515-A1F9AD3943E5}"/>
+  <xr:revisionPtr revIDLastSave="1984" documentId="13_ncr:1_{E99D6FA8-A0A2-FD43-B006-A811E6300C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A84B58B5-9FC3-4629-B1A2-FDF578E9A038}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="500" windowWidth="15240" windowHeight="16440" xr2:uid="{B660C8A4-04E2-6741-A994-6DCDE6E9B9BE}"/>
+    <workbookView xWindow="13180" yWindow="500" windowWidth="15240" windowHeight="16440" activeTab="1" xr2:uid="{B660C8A4-04E2-6741-A994-6DCDE6E9B9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDDATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="407">
   <si>
     <t>SAMPLEID</t>
   </si>
@@ -1038,25 +1038,25 @@
     <t>LB-HI-09</t>
   </si>
   <si>
-    <t>570, 571, 572, 573</t>
+    <t>561, 562, 563, 564</t>
   </si>
   <si>
     <t>LB-HO-09</t>
   </si>
   <si>
-    <t>574, 575, 576, 577</t>
+    <t>565, 566, 567, 568</t>
   </si>
   <si>
     <t>LB-SI-09</t>
   </si>
   <si>
-    <t>578, 579, 580, 581</t>
+    <t>569, 570, 571, 572</t>
   </si>
   <si>
     <t>LB-SO-09</t>
   </si>
   <si>
-    <t>582, 583, 584, 585</t>
+    <t>573, 574, 575, 576</t>
   </si>
   <si>
     <t>LB-HI-10</t>
@@ -1201,6 +1201,9 @@
   </si>
   <si>
     <t>141, 142, 143, 144</t>
+  </si>
+  <si>
+    <t>site-treatment-quadrat</t>
   </si>
   <si>
     <t>BB- Brewers Bay</t>
@@ -1662,9 +1665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD4D05-27D1-B742-908C-2B53A12F0A39}">
   <dimension ref="A1:U361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -2497,9 +2500,21 @@
       <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7" t="e">
+      <c r="G14">
+        <v>1.4809504892378391</v>
+      </c>
+      <c r="H14">
+        <v>1.5953333917249846</v>
+      </c>
+      <c r="I14">
+        <v>1.4404918545286827</v>
+      </c>
+      <c r="J14">
+        <v>1.5974101225098392</v>
+      </c>
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.5285464645003364</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="1"/>
@@ -2528,9 +2543,21 @@
       <c r="F15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="7" t="e">
+      <c r="G15">
+        <v>1.4898155228409224</v>
+      </c>
+      <c r="H15">
+        <v>1.3333731358820744</v>
+      </c>
+      <c r="I15">
+        <v>1.480033718444862</v>
+      </c>
+      <c r="J15">
+        <v>1.4187272960083839</v>
+      </c>
+      <c r="K15" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4304874182940608</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="1"/>
@@ -2559,9 +2586,21 @@
       <c r="F16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="7" t="e">
+      <c r="G16">
+        <v>1.5079619859416085</v>
+      </c>
+      <c r="H16">
+        <v>1.6184678577470031</v>
+      </c>
+      <c r="I16">
+        <v>1.3855048521384519</v>
+      </c>
+      <c r="J16">
+        <v>1.5116693090529036</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.5059010012199918</v>
       </c>
       <c r="R16" s="7">
         <f t="shared" si="1"/>
@@ -2590,9 +2629,21 @@
       <c r="F17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="7" t="e">
+      <c r="G17">
+        <v>1.5253876292585036</v>
+      </c>
+      <c r="H17">
+        <v>1.6505443381257132</v>
+      </c>
+      <c r="I17">
+        <v>1.5356383164265446</v>
+      </c>
+      <c r="J17">
+        <v>1.4711966778430909</v>
+      </c>
+      <c r="K17" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.5456917404134631</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="1"/>
@@ -2621,9 +2672,21 @@
       <c r="F18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="7" t="e">
+      <c r="G18">
+        <v>1.4436953036163567</v>
+      </c>
+      <c r="H18">
+        <v>1.5566278187230094</v>
+      </c>
+      <c r="I18">
+        <v>1.3996623125521381</v>
+      </c>
+      <c r="J18">
+        <v>1.4568975028602613</v>
+      </c>
+      <c r="K18" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4642207344379414</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="1"/>
@@ -2652,9 +2715,21 @@
       <c r="F19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="7" t="e">
+      <c r="G19">
+        <v>1.4412809072531723</v>
+      </c>
+      <c r="H19">
+        <v>1.54931814625534</v>
+      </c>
+      <c r="I19">
+        <v>1.5082804063315358</v>
+      </c>
+      <c r="J19">
+        <v>1.4700069752873191</v>
+      </c>
+      <c r="K19" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4922216087818418</v>
       </c>
       <c r="R19" s="7">
         <f t="shared" si="1"/>
@@ -2683,9 +2758,21 @@
       <c r="F20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="7" t="e">
+      <c r="G20">
+        <v>1.4931851803738883</v>
+      </c>
+      <c r="H20">
+        <v>1.5320884539476309</v>
+      </c>
+      <c r="I20">
+        <v>1.4331191978080604</v>
+      </c>
+      <c r="J20">
+        <v>1.326793031011106</v>
+      </c>
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4462964657851713</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="1"/>
@@ -2714,9 +2801,21 @@
       <c r="F21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="7" t="e">
+      <c r="G21">
+        <v>1.4121734345761461</v>
+      </c>
+      <c r="H21">
+        <v>1.5179012509700505</v>
+      </c>
+      <c r="I21">
+        <v>1.469284405940946</v>
+      </c>
+      <c r="J21">
+        <v>1.3942701606743599</v>
+      </c>
+      <c r="K21" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4484073130403756</v>
       </c>
       <c r="R21" s="7">
         <f t="shared" si="1"/>
@@ -2745,9 +2844,21 @@
       <c r="F22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="7" t="e">
+      <c r="G22">
+        <v>1.4896895543350168</v>
+      </c>
+      <c r="H22">
+        <v>1.4520687101338929</v>
+      </c>
+      <c r="I22">
+        <v>1.6940209682888501</v>
+      </c>
+      <c r="J22">
+        <v>1.6171539362479077</v>
+      </c>
+      <c r="K22" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.5632332922514169</v>
       </c>
       <c r="R22" s="7">
         <f t="shared" si="1"/>
@@ -2776,9 +2887,21 @@
       <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="7" t="e">
+      <c r="G23">
+        <v>1.4466853060690248</v>
+      </c>
+      <c r="H23">
+        <v>1.5975833292054591</v>
+      </c>
+      <c r="I23">
+        <v>1.3605893314079396</v>
+      </c>
+      <c r="J23">
+        <v>1.5123971270870231</v>
+      </c>
+      <c r="K23" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4793137734423616</v>
       </c>
       <c r="R23" s="7">
         <f t="shared" si="1"/>
@@ -2807,9 +2930,21 @@
       <c r="F24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="7" t="e">
+      <c r="G24">
+        <v>1.4283901301488671</v>
+      </c>
+      <c r="H24">
+        <v>1.5073163973488439</v>
+      </c>
+      <c r="I24">
+        <v>1.4282641616429619</v>
+      </c>
+      <c r="J24">
+        <v>1.354945242518351</v>
+      </c>
+      <c r="K24" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4297289829147559</v>
       </c>
       <c r="R24" s="7">
         <f t="shared" si="1"/>
@@ -2838,9 +2973,21 @@
       <c r="F25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="7" t="e">
+      <c r="G25">
+        <v>1.4478190226221721</v>
+      </c>
+      <c r="H25">
+        <v>1.3677327954303176</v>
+      </c>
+      <c r="I25">
+        <v>1.3674546149797764</v>
+      </c>
+      <c r="J25">
+        <v>1.4737038010231225</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1.4141775585138472</v>
       </c>
       <c r="R25" s="7">
         <f t="shared" si="1"/>
@@ -8669,9 +8816,27 @@
         <f t="shared" si="4"/>
         <v>1.3851335074804187</v>
       </c>
+      <c r="L146">
+        <v>2.1843973455424583</v>
+      </c>
+      <c r="M146">
+        <v>0.24375893821698336</v>
+      </c>
+      <c r="N146">
+        <v>3.6709218209190144E-3</v>
+      </c>
+      <c r="O146">
+        <v>2.1861025437252075</v>
+      </c>
+      <c r="P146">
+        <v>0.24444101749008307</v>
+      </c>
+      <c r="Q146">
+        <v>3.2493120559162875E-3</v>
+      </c>
       <c r="R146">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.9202338768353018</v>
       </c>
       <c r="U146">
         <v>62.5</v>
@@ -8712,9 +8877,27 @@
         <f t="shared" si="4"/>
         <v>1.2611192629792667</v>
       </c>
+      <c r="L147">
+        <v>2.1077679244792189</v>
+      </c>
+      <c r="M147">
+        <v>0.21310716979168765</v>
+      </c>
+      <c r="N147">
+        <v>2.7444922010292391E-3</v>
+      </c>
+      <c r="O147">
+        <v>2.2274129231245738</v>
+      </c>
+      <c r="P147">
+        <v>0.2609651692498296</v>
+      </c>
+      <c r="Q147">
+        <v>3.0689823026803049E-3</v>
+      </c>
       <c r="R147">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.8134745037095437</v>
       </c>
       <c r="U147">
         <v>62.5</v>
@@ -8755,9 +8938,27 @@
         <f t="shared" si="4"/>
         <v>1.2628920072654961</v>
       </c>
+      <c r="L148">
+        <v>1.9710582003877697</v>
+      </c>
+      <c r="M148">
+        <v>0.15842328015510787</v>
+      </c>
+      <c r="N148">
+        <v>1.9711656951799375E-3</v>
+      </c>
+      <c r="O148">
+        <v>2.1284097829919477</v>
+      </c>
+      <c r="P148">
+        <v>0.22136391319677917</v>
+      </c>
+      <c r="Q148">
+        <v>2.6796518993835328E-3</v>
+      </c>
       <c r="R148">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.6508175945634704</v>
       </c>
       <c r="U148">
         <v>12.5</v>
@@ -8798,9 +8999,27 @@
         <f t="shared" si="4"/>
         <v>1.2304481187445619</v>
       </c>
+      <c r="L149">
+        <v>2.1433954551841152</v>
+      </c>
+      <c r="M149">
+        <v>0.22735818207364611</v>
+      </c>
+      <c r="N149">
+        <v>2.9029871877338351E-3</v>
+      </c>
+      <c r="O149">
+        <v>2.0304503908139901</v>
+      </c>
+      <c r="P149">
+        <v>0.18218015632559614</v>
+      </c>
+      <c r="Q149">
+        <v>2.3632522432856513E-3</v>
+      </c>
       <c r="R149">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.2662394310194864</v>
       </c>
       <c r="U149">
         <v>12.5</v>
@@ -8841,9 +9060,27 @@
         <f t="shared" si="4"/>
         <v>1.1731770624035074</v>
       </c>
+      <c r="L150">
+        <v>2.098205767598575</v>
+      </c>
+      <c r="M150">
+        <v>0.20928230703943007</v>
+      </c>
+      <c r="N150">
+        <v>2.3843667298812789E-3</v>
+      </c>
+      <c r="O150">
+        <v>2.1513208381566793</v>
+      </c>
+      <c r="P150">
+        <v>0.2305283352626718</v>
+      </c>
+      <c r="Q150">
+        <v>2.7311874342885348E-3</v>
+      </c>
       <c r="R150">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.1155541641698132</v>
       </c>
       <c r="U150">
         <v>32.5</v>
@@ -8884,9 +9121,27 @@
         <f t="shared" si="4"/>
         <v>1.1487501070240225</v>
       </c>
+      <c r="L151">
+        <v>2.648950354239108</v>
+      </c>
+      <c r="M151">
+        <v>0.42958014169564318</v>
+      </c>
+      <c r="N151">
+        <v>4.6907144431008775E-3</v>
+      </c>
+      <c r="O151">
+        <v>2.2658958058863425</v>
+      </c>
+      <c r="P151">
+        <v>0.27635832235453706</v>
+      </c>
+      <c r="Q151">
+        <v>3.4464755667433992E-3</v>
+      </c>
       <c r="R151">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.1371900098442769</v>
       </c>
       <c r="U151">
         <v>32.5</v>
@@ -8927,9 +9182,27 @@
         <f t="shared" si="4"/>
         <v>1.173424625508863</v>
       </c>
+      <c r="L152">
+        <v>2.166026884060805</v>
+      </c>
+      <c r="M152">
+        <v>0.23641075362432207</v>
+      </c>
+      <c r="N152">
+        <v>2.8488960747029444E-3</v>
+      </c>
+      <c r="O152">
+        <v>2.1476846379195309</v>
+      </c>
+      <c r="P152">
+        <v>0.22907385516781242</v>
+      </c>
+      <c r="Q152">
+        <v>2.9925970939464535E-3</v>
+      </c>
       <c r="R152">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.8414931686493983</v>
       </c>
       <c r="U152">
         <v>17.5</v>
@@ -8970,9 +9243,27 @@
         <f t="shared" si="4"/>
         <v>1.2899319343612232</v>
       </c>
+      <c r="L153">
+        <v>2.143224069654766</v>
+      </c>
+      <c r="M153">
+        <v>0.22728962786190643</v>
+      </c>
+      <c r="N153">
+        <v>2.7413230595503069E-3</v>
+      </c>
+      <c r="O153">
+        <v>2.1417008276978806</v>
+      </c>
+      <c r="P153">
+        <v>0.22668033107915231</v>
+      </c>
+      <c r="Q153">
+        <v>2.9208006656534472E-3</v>
+      </c>
       <c r="R153">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.6621237252037542</v>
       </c>
       <c r="U153">
         <v>17.5</v>
@@ -9013,9 +9304,27 @@
         <f t="shared" si="4"/>
         <v>1.1575119164347676</v>
       </c>
+      <c r="L154">
+        <v>2.1673054896114365</v>
+      </c>
+      <c r="M154">
+        <v>0.23692219584457463</v>
+      </c>
+      <c r="N154">
+        <v>2.5843385079721594E-3</v>
+      </c>
+      <c r="O154">
+        <v>2.1163190697613401</v>
+      </c>
+      <c r="P154">
+        <v>0.21652762790453606</v>
+      </c>
+      <c r="Q154">
+        <v>2.6328173473459406E-3</v>
+      </c>
       <c r="R154">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.2171558553181008</v>
       </c>
       <c r="U154">
         <v>25</v>
@@ -9056,9 +9365,27 @@
         <f t="shared" si="4"/>
         <v>1.2633713874129686</v>
       </c>
+      <c r="L155">
+        <v>2.3638145554379859</v>
+      </c>
+      <c r="M155">
+        <v>0.31552582217519443</v>
+      </c>
+      <c r="N155">
+        <v>3.6282424920207963E-3</v>
+      </c>
+      <c r="O155">
+        <v>2.397482836056176</v>
+      </c>
+      <c r="P155">
+        <v>0.32899313442247047</v>
+      </c>
+      <c r="Q155">
+        <v>4.80412114251191E-3</v>
+      </c>
       <c r="R155">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.432363634532706</v>
       </c>
       <c r="U155">
         <v>25</v>
@@ -9099,9 +9426,27 @@
         <f t="shared" si="4"/>
         <v>1.3421646878567126</v>
       </c>
+      <c r="L156">
+        <v>2.1189762060544011</v>
+      </c>
+      <c r="M156">
+        <v>0.21759048242176049</v>
+      </c>
+      <c r="N156">
+        <v>3.1020261020290097E-3</v>
+      </c>
+      <c r="O156">
+        <v>2.0469899512590319</v>
+      </c>
+      <c r="P156">
+        <v>0.18879598050361279</v>
+      </c>
+      <c r="Q156">
+        <v>2.6218221505310982E-3</v>
+      </c>
       <c r="R156">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.7238482525601082</v>
       </c>
       <c r="U156">
         <v>0</v>
@@ -9142,9 +9487,27 @@
         <f t="shared" si="4"/>
         <v>1.3361007039474395</v>
       </c>
+      <c r="L157">
+        <v>2.034345934497745</v>
+      </c>
+      <c r="M157">
+        <v>0.18373837379909808</v>
+      </c>
+      <c r="N157">
+        <v>2.6168885816048146E-3</v>
+      </c>
+      <c r="O157">
+        <v>2.1272412708398649</v>
+      </c>
+      <c r="P157">
+        <v>0.22089650833594598</v>
+      </c>
+      <c r="Q157">
+        <v>2.8684358016406739E-3</v>
+      </c>
       <c r="R157">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.485324383245489</v>
       </c>
       <c r="U157">
         <v>0</v>
@@ -10921,102 +11284,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07374C76-7F3C-4CE4-9CE0-8E9D1F397F28}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="10.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="4" customWidth="1"/>
-    <col min="7" max="17" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="11.109375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="10.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="4" customWidth="1"/>
+    <col min="8" max="18" width="8.88671875" style="4"/>
+    <col min="19" max="19" width="11.109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25">
+    <row r="1" spans="1:21" ht="36">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="53.25">
+    <row r="2" spans="1:21" ht="53.25">
       <c r="A2" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>389</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>391</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -11026,76 +11393,79 @@
         <v>393</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>394</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>395</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q2" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>396</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>397</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="53.25">
-      <c r="A3" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="U2" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="53.25">
       <c r="B3" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>401</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>402</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="17.25">
-      <c r="A4" s="4" t="s">
         <v>403</v>
       </c>
+      <c r="U3" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.25">
       <c r="B4" s="4" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="17.25">
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17.25">
+      <c r="C5" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/data/seddataR.xlsx
+++ b/data/seddataR.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahferraro/Desktop/Masters/Datasheets/Lab Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1984" documentId="13_ncr:1_{E99D6FA8-A0A2-FD43-B006-A811E6300C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A84B58B5-9FC3-4629-B1A2-FDF578E9A038}"/>
+  <xr:revisionPtr revIDLastSave="2004" documentId="13_ncr:1_{E99D6FA8-A0A2-FD43-B006-A811E6300C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF4B9701-7C4E-4B29-999A-45B8FCAEC5F0}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="500" windowWidth="15240" windowHeight="16440" activeTab="1" xr2:uid="{B660C8A4-04E2-6741-A994-6DCDE6E9B9BE}"/>
+    <workbookView xWindow="13180" yWindow="500" windowWidth="15240" windowHeight="16440" xr2:uid="{B660C8A4-04E2-6741-A994-6DCDE6E9B9BE}"/>
   </bookViews>
   <sheets>
     <sheet name="SEDDATA" sheetId="1" r:id="rId1"/>
     <sheet name="METADATA" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEDDATA!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SEDDATA!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="406">
   <si>
     <t>SAMPLEID</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>SDGRAIN</t>
-  </si>
-  <si>
-    <t>PERCENTCOVER</t>
   </si>
   <si>
     <t>FB-HI-01</t>
@@ -1663,11 +1660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AD4D05-27D1-B742-908C-2B53A12F0A39}">
-  <dimension ref="A1:U361"/>
+  <dimension ref="A1:T361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1"/>
@@ -1681,10 +1678,9 @@
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="9" max="20" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1745,19 +1741,16 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1766,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>1.7431031969647712</v>
@@ -1806,19 +1799,16 @@
         <f>(N2+Q2)*1000</f>
         <v>12.019569914837497</v>
       </c>
-      <c r="U2">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1827,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <v>1.3445265973424363</v>
@@ -1867,19 +1857,16 @@
         <f t="shared" ref="R3:R66" si="1">(N3+Q3)*1000</f>
         <v>10.693133244110436</v>
       </c>
-      <c r="U3">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1888,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>1.6019029992204605</v>
@@ -1928,19 +1915,16 @@
         <f t="shared" si="1"/>
         <v>12.442702561180971</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1949,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>1.4285948289709629</v>
@@ -1989,19 +1973,16 @@
         <f t="shared" si="1"/>
         <v>11.256998915413103</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2010,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1.5559122476269642</v>
@@ -2050,19 +2031,16 @@
         <f t="shared" si="1"/>
         <v>23.580213294700794</v>
       </c>
-      <c r="U6">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2071,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1.2107235501948959</v>
@@ -2111,19 +2089,16 @@
         <f t="shared" si="1"/>
         <v>17.757301256774063</v>
       </c>
-      <c r="U7">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2132,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1.4354041265401754</v>
@@ -2172,19 +2147,16 @@
         <f t="shared" si="1"/>
         <v>11.981026691486148</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2193,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>1.1631529435898376</v>
@@ -2233,19 +2205,16 @@
         <f t="shared" si="1"/>
         <v>13.683720806454366</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2254,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>1.3556100762995176</v>
@@ -2294,19 +2263,16 @@
         <f t="shared" si="1"/>
         <v>14.141542031212495</v>
       </c>
-      <c r="U10">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2315,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11">
         <v>1.2591619398406342</v>
@@ -2355,19 +2321,16 @@
         <f t="shared" si="1"/>
         <v>17.070131144132326</v>
       </c>
-      <c r="U11">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2376,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12">
         <v>1.3229177498919371</v>
@@ -2416,19 +2379,16 @@
         <f t="shared" si="1"/>
         <v>13.530060749785383</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -2437,7 +2397,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>1.3873471415373166</v>
@@ -2477,19 +2437,16 @@
         <f t="shared" si="1"/>
         <v>12.422871751840109</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="14" spans="1:20" s="7" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="7">
         <v>4</v>
@@ -2498,7 +2455,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1.4809504892378391</v>
@@ -2520,19 +2477,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U14" s="7">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="15" spans="1:20" s="7" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
         <v>4</v>
@@ -2541,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15">
         <v>1.4898155228409224</v>
@@ -2563,19 +2517,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U15" s="7">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="16" spans="1:20" s="7" customFormat="1">
       <c r="A16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
         <v>4</v>
@@ -2584,7 +2535,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>1.5079619859416085</v>
@@ -2606,19 +2557,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="17" spans="1:18" s="7" customFormat="1">
       <c r="A17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="7">
         <v>4</v>
@@ -2627,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>1.5253876292585036</v>
@@ -2649,19 +2597,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="18" spans="1:18" s="7" customFormat="1">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D18" s="7">
         <v>5</v>
@@ -2670,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18">
         <v>1.4436953036163567</v>
@@ -2692,19 +2637,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U18" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="19" spans="1:18" s="7" customFormat="1">
       <c r="A19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
         <v>5</v>
@@ -2713,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19">
         <v>1.4412809072531723</v>
@@ -2735,19 +2677,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="20" spans="1:18" s="7" customFormat="1">
       <c r="A20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
@@ -2756,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20">
         <v>1.4931851803738883</v>
@@ -2778,19 +2717,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U20" s="7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="21" spans="1:18" s="7" customFormat="1">
       <c r="A21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7">
         <v>5</v>
@@ -2799,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <v>1.4121734345761461</v>
@@ -2821,19 +2757,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U21" s="7">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="22" spans="1:18" s="7" customFormat="1">
       <c r="A22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D22" s="7">
         <v>6</v>
@@ -2842,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <v>1.4896895543350168</v>
@@ -2864,19 +2797,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U22" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="23" spans="1:18" s="7" customFormat="1">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7">
         <v>6</v>
@@ -2885,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23">
         <v>1.4466853060690248</v>
@@ -2907,19 +2837,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U23" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="24" spans="1:18" s="7" customFormat="1">
       <c r="A24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
         <v>6</v>
@@ -2928,7 +2855,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24">
         <v>1.4283901301488671</v>
@@ -2950,19 +2877,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="7" customFormat="1">
+    </row>
+    <row r="25" spans="1:18" s="7" customFormat="1">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
         <v>6</v>
@@ -2971,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25">
         <v>1.4478190226221721</v>
@@ -2993,19 +2917,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
         <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
       </c>
       <c r="D26">
         <v>7</v>
@@ -3014,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" t="e">
         <f t="shared" si="0"/>
@@ -3024,19 +2945,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -3045,7 +2963,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" t="e">
         <f t="shared" si="0"/>
@@ -3055,19 +2973,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>7</v>
@@ -3076,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" t="e">
         <f t="shared" si="0"/>
@@ -3086,19 +3001,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -3107,7 +3019,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" t="e">
         <f t="shared" si="0"/>
@@ -3117,19 +3029,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
         <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3138,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" t="e">
         <f t="shared" si="0"/>
@@ -3148,19 +3057,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -3169,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K31" t="e">
         <f t="shared" si="0"/>
@@ -3179,19 +3085,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -3200,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" t="e">
         <f t="shared" si="0"/>
@@ -3210,19 +3113,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -3231,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K33" t="e">
         <f t="shared" si="0"/>
@@ -3241,19 +3141,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
         <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -3262,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K34" t="e">
         <f t="shared" si="0"/>
@@ -3272,19 +3169,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U34">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>9</v>
@@ -3293,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K35" t="e">
         <f t="shared" si="0"/>
@@ -3303,19 +3197,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U35">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -3324,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K36" t="e">
         <f t="shared" si="0"/>
@@ -3334,19 +3225,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -3355,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K37" t="e">
         <f t="shared" si="0"/>
@@ -3365,19 +3253,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
         <v>22</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -3386,7 +3271,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" t="e">
         <f t="shared" si="0"/>
@@ -3397,15 +3282,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -3414,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" t="e">
         <f t="shared" si="0"/>
@@ -3425,15 +3310,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40">
         <v>10</v>
@@ -3442,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K40" t="e">
         <f t="shared" si="0"/>
@@ -3453,15 +3338,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -3470,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" t="e">
         <f t="shared" si="0"/>
@@ -3481,15 +3366,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
         <v>22</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
       </c>
       <c r="D42">
         <v>11</v>
@@ -3498,7 +3383,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K42" t="e">
         <f t="shared" si="0"/>
@@ -3509,15 +3394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D43">
         <v>11</v>
@@ -3526,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K43" t="e">
         <f t="shared" si="0"/>
@@ -3537,15 +3422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>11</v>
@@ -3554,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K44" t="e">
         <f t="shared" si="0"/>
@@ -3565,15 +3450,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>11</v>
@@ -3582,7 +3467,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K45" t="e">
         <f t="shared" si="0"/>
@@ -3593,15 +3478,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
         <v>22</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
       </c>
       <c r="D46">
         <v>12</v>
@@ -3610,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K46" t="e">
         <f t="shared" si="0"/>
@@ -3621,15 +3506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -3638,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K47" t="e">
         <f t="shared" si="0"/>
@@ -3649,15 +3534,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -3666,7 +3551,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K48" t="e">
         <f t="shared" si="0"/>
@@ -3677,15 +3562,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <v>12</v>
@@ -3694,7 +3579,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K49" t="e">
         <f t="shared" si="0"/>
@@ -3705,15 +3590,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" t="s">
         <v>22</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
       </c>
       <c r="D50">
         <v>13</v>
@@ -3722,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50">
         <v>1.2346873088807906</v>
@@ -3763,15 +3648,15 @@
         <v>15.224634170313246</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D51">
         <v>13</v>
@@ -3780,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G51">
         <v>1.3741921804831263</v>
@@ -3821,15 +3706,15 @@
         <v>15.174663824747237</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>13</v>
@@ -3838,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G52">
         <v>1.4646813067876576</v>
@@ -3878,19 +3763,16 @@
         <f t="shared" si="1"/>
         <v>16.515425581797576</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>13</v>
@@ -3899,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53">
         <v>1.2221569416683804</v>
@@ -3939,19 +3821,16 @@
         <f t="shared" si="1"/>
         <v>14.517991063668411</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
         <v>22</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
       </c>
       <c r="D54">
         <v>14</v>
@@ -3960,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54">
         <v>1.6738485117181874</v>
@@ -4001,15 +3880,15 @@
         <v>19.779258016856975</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>14</v>
@@ -4018,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G55">
         <v>1.4929157477362571</v>
@@ -4059,15 +3938,15 @@
         <v>18.528362265451836</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -4076,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G56">
         <v>1.471894753313316</v>
@@ -4116,19 +3995,16 @@
         <f t="shared" si="1"/>
         <v>15.705963655322536</v>
       </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>14</v>
@@ -4137,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G57">
         <v>1.5304998511231589</v>
@@ -4177,19 +4053,16 @@
         <f t="shared" si="1"/>
         <v>16.228675984459809</v>
       </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
         <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>23</v>
       </c>
       <c r="D58">
         <v>15</v>
@@ -4198,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G58">
         <v>1.1202799125174969</v>
@@ -4239,15 +4112,15 @@
         <v>23.086316176500326</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -4256,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G59">
         <v>1.432580332532799</v>
@@ -4297,15 +4170,15 @@
         <v>22.407243659235068</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D60">
         <v>15</v>
@@ -4314,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G60">
         <v>1.5262676592372584</v>
@@ -4354,19 +4227,16 @@
         <f t="shared" si="1"/>
         <v>16.447071087959632</v>
       </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61">
         <v>15</v>
@@ -4375,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G61">
         <v>1.2837642888689655</v>
@@ -4415,19 +4285,16 @@
         <f t="shared" si="1"/>
         <v>61.780061410659577</v>
       </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
         <v>146</v>
       </c>
-      <c r="B62" t="s">
-        <v>147</v>
-      </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4436,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62">
         <v>1.308772536416325</v>
@@ -4476,19 +4343,16 @@
         <f t="shared" si="1"/>
         <v>13.395498196532772</v>
       </c>
-      <c r="U62">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4497,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G63">
         <v>1.1548302743871801</v>
@@ -4537,19 +4401,16 @@
         <f t="shared" si="1"/>
         <v>18.542624598424464</v>
       </c>
-      <c r="U63">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4558,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G64">
         <v>1.4783926287429292</v>
@@ -4598,19 +4459,16 @@
         <f t="shared" si="1"/>
         <v>19.074559617457915</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4619,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G65">
         <v>1.5403376415218439</v>
@@ -4659,19 +4517,16 @@
         <f t="shared" si="1"/>
         <v>19.070543258402306</v>
       </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -4680,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G66">
         <v>1.4376243214567559</v>
@@ -4720,19 +4575,16 @@
         <f t="shared" si="1"/>
         <v>15.828090810948616</v>
       </c>
-      <c r="U66">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4741,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G67">
         <v>1.3473031531600981</v>
@@ -4781,19 +4633,16 @@
         <f t="shared" ref="R67:R130" si="3">(N67+Q67)*1000</f>
         <v>22.667788547343847</v>
       </c>
-      <c r="U67">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4802,7 +4651,7 @@
         <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G68">
         <v>1.1713986320388865</v>
@@ -4842,19 +4691,16 @@
         <f t="shared" si="3"/>
         <v>22.161047958545272</v>
       </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4863,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G69">
         <v>1.2690399701787058</v>
@@ -4903,19 +4749,16 @@
         <f t="shared" si="3"/>
         <v>17.844819038306856</v>
       </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4924,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G70">
         <v>1.3430272222096473</v>
@@ -4964,19 +4807,16 @@
         <f t="shared" si="3"/>
         <v>15.261482604896422</v>
       </c>
-      <c r="U70">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -4985,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G71">
         <v>1.5271581865915056</v>
@@ -5025,19 +4865,16 @@
         <f t="shared" si="3"/>
         <v>24.211920736629576</v>
       </c>
-      <c r="U71">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -5046,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G72">
         <v>1.5372444148768369</v>
@@ -5086,19 +4923,16 @@
         <f t="shared" si="3"/>
         <v>22.966964870082439</v>
       </c>
-      <c r="U72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -5107,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G73">
         <v>1.3333608889440001</v>
@@ -5147,19 +4981,16 @@
         <f t="shared" si="3"/>
         <v>19.406380025639766</v>
       </c>
-      <c r="U73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -5168,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G74">
         <v>1.063149695964295</v>
@@ -5208,19 +5039,16 @@
         <f t="shared" si="3"/>
         <v>16.394312526136602</v>
       </c>
-      <c r="U74">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -5229,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G75">
         <v>1.4851057003701309</v>
@@ -5269,19 +5097,16 @@
         <f t="shared" si="3"/>
         <v>21.204995975335947</v>
       </c>
-      <c r="U75">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -5290,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G76">
         <v>1.4102856565501489</v>
@@ -5330,19 +5155,16 @@
         <f t="shared" si="3"/>
         <v>20.762666490621086</v>
       </c>
-      <c r="U76">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -5351,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G77">
         <v>1.113705056334275</v>
@@ -5391,19 +5213,16 @@
         <f t="shared" si="3"/>
         <v>18.474343624084906</v>
       </c>
-      <c r="U77">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -5412,7 +5231,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G78">
         <v>1.4180204727252488</v>
@@ -5452,19 +5271,16 @@
         <f t="shared" si="3"/>
         <v>15.761446642684765</v>
       </c>
-      <c r="U78">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -5473,7 +5289,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G79">
         <v>1.3865405931870065</v>
@@ -5513,19 +5329,16 @@
         <f t="shared" si="3"/>
         <v>19.489366095506806</v>
       </c>
-      <c r="U79">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -5534,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G80">
         <v>1.2285988310953693</v>
@@ -5574,19 +5387,16 @@
         <f t="shared" si="3"/>
         <v>19.995607272317091</v>
       </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -5595,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G81">
         <v>1.3590217233344519</v>
@@ -5635,19 +5445,16 @@
         <f t="shared" si="3"/>
         <v>19.541146330594007</v>
       </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -5656,7 +5463,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G82">
         <v>1.6518880021887026</v>
@@ -5696,19 +5503,16 @@
         <f t="shared" si="3"/>
         <v>15.03169313683229</v>
       </c>
-      <c r="U82">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D83">
         <v>6</v>
@@ -5717,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G83">
         <v>1.4745779991266037</v>
@@ -5757,19 +5561,16 @@
         <f t="shared" si="3"/>
         <v>21.014437233226694</v>
       </c>
-      <c r="U83">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -5778,7 +5579,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G84">
         <v>1.2538082783396605</v>
@@ -5818,19 +5619,16 @@
         <f t="shared" si="3"/>
         <v>14.227804443511527</v>
       </c>
-      <c r="U84">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -5839,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G85">
         <v>1.0998852614989181</v>
@@ -5879,19 +5677,16 @@
         <f t="shared" si="3"/>
         <v>16.309483756813371</v>
       </c>
-      <c r="U85">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86">
         <v>7</v>
@@ -5900,7 +5695,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K86" t="e">
         <f t="shared" si="2"/>
@@ -5910,19 +5705,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87">
         <v>7</v>
@@ -5931,7 +5723,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K87" t="e">
         <f t="shared" si="2"/>
@@ -5941,19 +5733,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88">
         <v>7</v>
@@ -5962,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K88" t="e">
         <f t="shared" si="2"/>
@@ -5972,19 +5761,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U88">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -5993,7 +5779,7 @@
         <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K89" t="e">
         <f t="shared" si="2"/>
@@ -6003,19 +5789,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U89">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -6024,7 +5807,7 @@
         <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K90" t="e">
         <f t="shared" si="2"/>
@@ -6034,19 +5817,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D91">
         <v>8</v>
@@ -6055,7 +5835,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K91" t="e">
         <f t="shared" si="2"/>
@@ -6065,19 +5845,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D92">
         <v>8</v>
@@ -6086,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K92" t="e">
         <f t="shared" si="2"/>
@@ -6096,19 +5873,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>8</v>
@@ -6117,7 +5891,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K93" t="e">
         <f t="shared" si="2"/>
@@ -6127,19 +5901,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94">
         <v>9</v>
@@ -6148,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K94" t="e">
         <f t="shared" si="2"/>
@@ -6158,19 +5929,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U94">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -6179,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K95" t="e">
         <f t="shared" si="2"/>
@@ -6189,19 +5957,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U95">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96">
         <v>9</v>
@@ -6210,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K96" t="e">
         <f t="shared" si="2"/>
@@ -6220,19 +5985,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U96">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D97">
         <v>9</v>
@@ -6241,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K97" t="e">
         <f t="shared" si="2"/>
@@ -6251,19 +6013,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U97">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98">
         <v>10</v>
@@ -6272,7 +6031,7 @@
         <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K98" t="e">
         <f t="shared" si="2"/>
@@ -6283,15 +6042,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -6300,7 +6059,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K99" t="e">
         <f t="shared" si="2"/>
@@ -6311,15 +6070,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D100">
         <v>10</v>
@@ -6328,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K100" t="e">
         <f t="shared" si="2"/>
@@ -6339,15 +6098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101">
         <v>10</v>
@@ -6356,7 +6115,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K101" t="e">
         <f t="shared" si="2"/>
@@ -6367,15 +6126,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102">
         <v>11</v>
@@ -6384,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K102" t="e">
         <f t="shared" si="2"/>
@@ -6395,15 +6154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103">
         <v>11</v>
@@ -6412,7 +6171,7 @@
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K103" t="e">
         <f t="shared" si="2"/>
@@ -6423,15 +6182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D104">
         <v>11</v>
@@ -6440,7 +6199,7 @@
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K104" t="e">
         <f t="shared" si="2"/>
@@ -6451,15 +6210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105">
         <v>11</v>
@@ -6468,7 +6227,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K105" t="e">
         <f t="shared" si="2"/>
@@ -6479,15 +6238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106">
         <v>12</v>
@@ -6496,7 +6255,7 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K106" t="e">
         <f t="shared" si="2"/>
@@ -6507,15 +6266,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107">
         <v>12</v>
@@ -6524,7 +6283,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K107" t="e">
         <f t="shared" si="2"/>
@@ -6535,15 +6294,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108">
         <v>12</v>
@@ -6552,7 +6311,7 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K108" t="e">
         <f t="shared" si="2"/>
@@ -6563,15 +6322,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -6580,7 +6339,7 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K109" t="e">
         <f t="shared" si="2"/>
@@ -6591,15 +6350,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110">
         <v>13</v>
@@ -6608,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G110">
         <v>1.1288790126081134</v>
@@ -6648,19 +6407,16 @@
         <f t="shared" si="3"/>
         <v>21.292269027950006</v>
       </c>
-      <c r="U110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111">
         <v>13</v>
@@ -6669,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G111">
         <v>1.293570587141174</v>
@@ -6709,19 +6465,16 @@
         <f t="shared" si="3"/>
         <v>20.835809433625421</v>
       </c>
-      <c r="U111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112">
         <v>13</v>
@@ -6730,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G112">
         <v>1.0455665920150181</v>
@@ -6770,19 +6523,16 @@
         <f t="shared" si="3"/>
         <v>25.056412676335739</v>
       </c>
-      <c r="U112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D113">
         <v>13</v>
@@ -6791,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G113">
         <v>1.3287927810423521</v>
@@ -6831,19 +6581,16 @@
         <f t="shared" si="3"/>
         <v>23.359233596299006</v>
       </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D114">
         <v>14</v>
@@ -6852,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G114">
         <v>1.3283221487077894</v>
@@ -6892,19 +6639,16 @@
         <f t="shared" si="3"/>
         <v>23.367134334277537</v>
       </c>
-      <c r="U114">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21">
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D115">
         <v>14</v>
@@ -6913,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G115">
         <v>1.3536068271431076</v>
@@ -6953,19 +6697,16 @@
         <f t="shared" si="3"/>
         <v>22.186587831400914</v>
       </c>
-      <c r="U115">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -6974,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G116">
         <v>1.3429449927682924</v>
@@ -7014,19 +6755,16 @@
         <f t="shared" si="3"/>
         <v>24.714715922087663</v>
       </c>
-      <c r="U116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D117">
         <v>14</v>
@@ -7035,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G117">
         <v>1.357660563645642</v>
@@ -7075,19 +6813,16 @@
         <f t="shared" si="3"/>
         <v>20.765938091956929</v>
       </c>
-      <c r="U117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21">
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118">
         <v>15</v>
@@ -7096,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G118">
         <v>1.2299599907841792</v>
@@ -7115,13 +6850,13 @@
         <v>1.0661733774966669</v>
       </c>
       <c r="L118">
-        <v>10.893093920847544</v>
+        <v>4.3612872884510896</v>
       </c>
       <c r="M118">
-        <v>3.7272375683390182</v>
+        <v>1.1145149153804361</v>
       </c>
       <c r="N118">
-        <v>4.5843530852047051E-2</v>
+        <v>1.3708087550501515E-2</v>
       </c>
       <c r="O118">
         <v>3.5602521955108033</v>
@@ -7134,21 +6869,18 @@
       </c>
       <c r="R118">
         <f t="shared" si="3"/>
-        <v>53.344602470024505</v>
-      </c>
-      <c r="U118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
+        <v>21.209159168478969</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D119">
         <v>15</v>
@@ -7157,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G119">
         <v>1.054617079251795</v>
@@ -7197,19 +6929,16 @@
         <f t="shared" si="3"/>
         <v>17.907888127955829</v>
       </c>
-      <c r="U119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D120">
         <v>15</v>
@@ -7218,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G120">
         <v>1.392884507109402</v>
@@ -7258,19 +6987,16 @@
         <f t="shared" si="3"/>
         <v>22.919636988240782</v>
       </c>
-      <c r="U120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121">
         <v>15</v>
@@ -7279,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G121">
         <v>1.4384046263683357</v>
@@ -7319,19 +7045,16 @@
         <f t="shared" si="3"/>
         <v>24.984397789482792</v>
       </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21">
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" t="s">
         <v>266</v>
       </c>
-      <c r="B122" t="s">
-        <v>267</v>
-      </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -7340,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G122">
         <v>1.3643491413966953</v>
@@ -7380,19 +7103,16 @@
         <f t="shared" si="3"/>
         <v>3.5083630440276745</v>
       </c>
-      <c r="U122">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -7401,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G123">
         <v>1.0407815383532</v>
@@ -7441,19 +7161,16 @@
         <f t="shared" si="3"/>
         <v>3.9102531230094715</v>
       </c>
-      <c r="U123">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -7462,7 +7179,7 @@
         <v>2</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G124">
         <v>1.5280697086967368</v>
@@ -7503,15 +7220,15 @@
         <v>3.257669987618331</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -7520,7 +7237,7 @@
         <v>2</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G125">
         <v>1.3347727859476883</v>
@@ -7561,15 +7278,15 @@
         <v>4.4722111972656213</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -7578,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G126">
         <v>1.3138392696538481</v>
@@ -7618,19 +7335,16 @@
         <f t="shared" si="3"/>
         <v>4.4665675941863352</v>
       </c>
-      <c r="U126">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -7639,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G127">
         <v>1.3603986290864998</v>
@@ -7679,19 +7393,16 @@
         <f t="shared" si="3"/>
         <v>5.0321927327758225</v>
       </c>
-      <c r="U127">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -7700,7 +7411,7 @@
         <v>2</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G128">
         <v>1.374547341687276</v>
@@ -7740,19 +7451,16 @@
         <f t="shared" si="3"/>
         <v>3.7296015927848822</v>
       </c>
-      <c r="U128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -7761,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G129">
         <v>1.4132249216879385</v>
@@ -7801,19 +7509,16 @@
         <f t="shared" si="3"/>
         <v>5.3032224592682882</v>
       </c>
-      <c r="U129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -7822,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G130">
         <v>1.3696695612086109</v>
@@ -7862,19 +7567,16 @@
         <f t="shared" si="3"/>
         <v>5.9779098795152539</v>
       </c>
-      <c r="U130">
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" t="s">
+        <v>284</v>
+      </c>
+      <c r="B131" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
-      <c r="A131" t="s">
-        <v>285</v>
-      </c>
-      <c r="B131" t="s">
-        <v>267</v>
-      </c>
-      <c r="C131" t="s">
-        <v>26</v>
       </c>
       <c r="D131">
         <v>3</v>
@@ -7883,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G131">
         <v>1.2093956321951445</v>
@@ -7923,19 +7625,16 @@
         <f t="shared" ref="R131:R181" si="5">(N131+Q131)*1000</f>
         <v>4.3304547809483891</v>
       </c>
-      <c r="U131">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -7944,7 +7643,7 @@
         <v>2</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G132">
         <v>1.2840599649453268</v>
@@ -7984,19 +7683,16 @@
         <f t="shared" si="5"/>
         <v>4.0288932532029351</v>
       </c>
-      <c r="U132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -8005,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G133">
         <v>1.4275783331108107</v>
@@ -8045,19 +7741,16 @@
         <f t="shared" si="5"/>
         <v>3.3527437113140235</v>
       </c>
-      <c r="U133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -8066,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G134">
         <v>0.83762058176673659</v>
@@ -8106,19 +7799,16 @@
         <f t="shared" si="5"/>
         <v>11.752559991393893</v>
       </c>
-      <c r="U134">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D135">
         <v>4</v>
@@ -8127,7 +7817,7 @@
         <v>3</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G135">
         <v>1.3756110757371427</v>
@@ -8167,19 +7857,16 @@
         <f t="shared" si="5"/>
         <v>4.9536825231565818</v>
       </c>
-      <c r="U135">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D136">
         <v>4</v>
@@ -8188,7 +7875,7 @@
         <v>3</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G136">
         <v>1.1136123295174281</v>
@@ -8228,19 +7915,16 @@
         <f t="shared" si="5"/>
         <v>3.4897693883341696</v>
       </c>
-      <c r="U136">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B137" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -8249,7 +7933,7 @@
         <v>3</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G137">
         <v>1.3140457180385261</v>
@@ -8289,19 +7973,16 @@
         <f t="shared" si="5"/>
         <v>4.4694221863594823</v>
       </c>
-      <c r="U137">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21">
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D138">
         <v>5</v>
@@ -8310,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G138">
         <v>1.249660065457697</v>
@@ -8350,19 +8031,16 @@
         <f t="shared" si="5"/>
         <v>5.2519687945824121</v>
       </c>
-      <c r="U138">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21">
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D139">
         <v>5</v>
@@ -8371,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G139">
         <v>1.0315945852350259</v>
@@ -8411,19 +8089,16 @@
         <f t="shared" si="5"/>
         <v>4.8037371502223127</v>
       </c>
-      <c r="U139">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21">
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B140" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D140">
         <v>5</v>
@@ -8432,7 +8107,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G140">
         <v>1.0187405489449426</v>
@@ -8472,19 +8147,16 @@
         <f t="shared" si="5"/>
         <v>3.3864738017458653</v>
       </c>
-      <c r="U140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21">
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B141" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -8493,7 +8165,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G141">
         <v>1.0515763394842486</v>
@@ -8533,19 +8205,16 @@
         <f t="shared" si="5"/>
         <v>4.2088732582635355</v>
       </c>
-      <c r="U141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21">
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B142" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -8554,7 +8223,7 @@
         <v>3</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G142">
         <v>1.1099697402216673</v>
@@ -8594,19 +8263,16 @@
         <f t="shared" si="5"/>
         <v>4.7270960415220493</v>
       </c>
-      <c r="U142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21">
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -8615,7 +8281,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G143">
         <v>1.1083776382720314</v>
@@ -8655,19 +8321,16 @@
         <f t="shared" si="5"/>
         <v>4.9201487087035476</v>
       </c>
-      <c r="U143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21">
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -8676,7 +8339,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G144">
         <v>1.4927058002264153</v>
@@ -8716,19 +8379,16 @@
         <f t="shared" si="5"/>
         <v>4.1252276373926087</v>
       </c>
-      <c r="U144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21">
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -8737,7 +8397,7 @@
         <v>3</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G145">
         <v>1.2989959807080107</v>
@@ -8777,19 +8437,16 @@
         <f t="shared" si="5"/>
         <v>4.0348237003679115</v>
       </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21">
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D146">
         <v>7</v>
@@ -8798,7 +8455,7 @@
         <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G146">
         <v>1.5059639854729443</v>
@@ -8838,19 +8495,16 @@
         <f t="shared" si="5"/>
         <v>6.9202338768353018</v>
       </c>
-      <c r="U146">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21">
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -8859,7 +8513,7 @@
         <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G147">
         <v>1.2878460183728127</v>
@@ -8899,19 +8553,16 @@
         <f t="shared" si="5"/>
         <v>5.8134745037095437</v>
       </c>
-      <c r="U147">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21">
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -8920,7 +8571,7 @@
         <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G148">
         <v>1.2442399205786066</v>
@@ -8960,19 +8611,16 @@
         <f t="shared" si="5"/>
         <v>4.6508175945634704</v>
       </c>
-      <c r="U148">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21">
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -8981,7 +8629,7 @@
         <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G149">
         <v>1.2768342714815939</v>
@@ -9021,19 +8669,16 @@
         <f t="shared" si="5"/>
         <v>5.2662394310194864</v>
       </c>
-      <c r="U149">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21">
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D150">
         <v>8</v>
@@ -9042,7 +8687,7 @@
         <v>4</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G150">
         <v>1.1393064055969382</v>
@@ -9082,19 +8727,16 @@
         <f t="shared" si="5"/>
         <v>5.1155541641698132</v>
       </c>
-      <c r="U150">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21">
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D151">
         <v>8</v>
@@ -9103,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G151">
         <v>1.09193000043848</v>
@@ -9143,19 +8785,16 @@
         <f t="shared" si="5"/>
         <v>8.1371900098442769</v>
       </c>
-      <c r="U151">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21">
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D152">
         <v>8</v>
@@ -9164,7 +8803,7 @@
         <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G152">
         <v>1.205061965679487</v>
@@ -9204,19 +8843,16 @@
         <f t="shared" si="5"/>
         <v>5.8414931686493983</v>
       </c>
-      <c r="U152">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21">
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B153" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D153">
         <v>8</v>
@@ -9225,7 +8861,7 @@
         <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G153">
         <v>1.2060924580402952</v>
@@ -9265,19 +8901,16 @@
         <f t="shared" si="5"/>
         <v>5.6621237252037542</v>
       </c>
-      <c r="U153">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21">
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D154">
         <v>9</v>
@@ -9286,7 +8919,7 @@
         <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G154">
         <v>1.0907962838853367</v>
@@ -9326,19 +8959,16 @@
         <f t="shared" si="5"/>
         <v>5.2171558553181008</v>
       </c>
-      <c r="U154">
+    </row>
+    <row r="155" spans="1:18">
+      <c r="A155" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" t="s">
+        <v>266</v>
+      </c>
+      <c r="C155" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21">
-      <c r="A155" t="s">
-        <v>333</v>
-      </c>
-      <c r="B155" t="s">
-        <v>267</v>
-      </c>
-      <c r="C155" t="s">
-        <v>26</v>
       </c>
       <c r="D155">
         <v>9</v>
@@ -9347,7 +8977,7 @@
         <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G155">
         <v>1.1499035061562186</v>
@@ -9387,19 +9017,16 @@
         <f t="shared" si="5"/>
         <v>8.432363634532706</v>
       </c>
-      <c r="U155">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21">
+    </row>
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D156">
         <v>9</v>
@@ -9408,7 +9035,7 @@
         <v>4</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G156">
         <v>1.4256258212692792</v>
@@ -9448,19 +9075,16 @@
         <f t="shared" si="5"/>
         <v>5.7238482525601082</v>
       </c>
-      <c r="U156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21">
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D157">
         <v>9</v>
@@ -9469,7 +9093,7 @@
         <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G157">
         <v>1.4242471659546494</v>
@@ -9509,19 +9133,16 @@
         <f t="shared" si="5"/>
         <v>5.485324383245489</v>
       </c>
-      <c r="U157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21">
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D158">
         <v>10</v>
@@ -9530,7 +9151,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K158" t="e">
         <f t="shared" si="4"/>
@@ -9541,15 +9162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D159">
         <v>10</v>
@@ -9558,7 +9179,7 @@
         <v>5</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K159" t="e">
         <f t="shared" si="4"/>
@@ -9569,15 +9190,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B160" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160">
         <v>10</v>
@@ -9586,7 +9207,7 @@
         <v>5</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K160" t="e">
         <f t="shared" si="4"/>
@@ -9597,15 +9218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D161">
         <v>10</v>
@@ -9614,7 +9235,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K161" t="e">
         <f t="shared" si="4"/>
@@ -9625,15 +9246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D162">
         <v>11</v>
@@ -9642,7 +9263,7 @@
         <v>5</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K162" t="e">
         <f t="shared" si="4"/>
@@ -9653,15 +9274,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B163" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D163">
         <v>11</v>
@@ -9670,7 +9291,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K163" t="e">
         <f t="shared" si="4"/>
@@ -9681,15 +9302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D164">
         <v>11</v>
@@ -9698,7 +9319,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K164" t="e">
         <f t="shared" si="4"/>
@@ -9709,15 +9330,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D165">
         <v>11</v>
@@ -9726,7 +9347,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K165" t="e">
         <f t="shared" si="4"/>
@@ -9737,15 +9358,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B166" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D166">
         <v>12</v>
@@ -9754,7 +9375,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K166" t="e">
         <f t="shared" si="4"/>
@@ -9765,15 +9386,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B167" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D167">
         <v>12</v>
@@ -9782,7 +9403,7 @@
         <v>5</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K167" t="e">
         <f t="shared" si="4"/>
@@ -9793,15 +9414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D168">
         <v>12</v>
@@ -9810,7 +9431,7 @@
         <v>5</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K168" t="e">
         <f t="shared" si="4"/>
@@ -9821,15 +9442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169">
         <v>12</v>
@@ -9838,7 +9459,7 @@
         <v>5</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K169" t="e">
         <f t="shared" si="4"/>
@@ -9849,15 +9470,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B170" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D170">
         <v>13</v>
@@ -9866,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G170">
         <v>1.3435573396719986</v>
@@ -9906,19 +9527,16 @@
         <f t="shared" si="5"/>
         <v>7.3909295334178751</v>
       </c>
-      <c r="U170">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21">
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B171" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D171">
         <v>13</v>
@@ -9927,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G171">
         <v>1.4428152736376019</v>
@@ -9967,19 +9585,16 @@
         <f t="shared" si="5"/>
         <v>7.7677214575246349</v>
       </c>
-      <c r="U171">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21">
+    </row>
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B172" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D172">
         <v>13</v>
@@ -9988,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G172">
         <v>1.146965990581011</v>
@@ -10028,19 +9643,16 @@
         <f t="shared" si="5"/>
         <v>6.9422992248107693</v>
       </c>
-      <c r="U172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21">
+    </row>
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D173">
         <v>13</v>
@@ -10049,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G173">
         <v>1.3157322963675908</v>
@@ -10089,19 +9701,16 @@
         <f t="shared" si="5"/>
         <v>7.4496181731349242</v>
       </c>
-      <c r="U173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21">
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D174">
         <v>14</v>
@@ -10110,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G174">
         <v>1.3103016541130084</v>
@@ -10150,19 +9759,16 @@
         <f t="shared" si="5"/>
         <v>7.9566887159066999</v>
       </c>
-      <c r="U174">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21">
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D175">
         <v>14</v>
@@ -10171,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G175">
         <v>1.4509349935807456</v>
@@ -10211,19 +9817,16 @@
         <f t="shared" si="5"/>
         <v>5.787126379915783</v>
       </c>
-      <c r="U175">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21">
+    </row>
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B176" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D176">
         <v>14</v>
@@ -10232,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G176">
         <v>0.94059458665654538</v>
@@ -10272,19 +9875,16 @@
         <f t="shared" si="5"/>
         <v>4.3740704123331202</v>
       </c>
-      <c r="U176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21">
+    </row>
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177">
         <v>14</v>
@@ -10293,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G177">
         <v>1.3812201733750911</v>
@@ -10333,19 +9933,16 @@
         <f t="shared" si="5"/>
         <v>5.2759007884836757</v>
       </c>
-      <c r="U177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21">
+    </row>
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B178" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D178">
         <v>15</v>
@@ -10354,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G178">
         <v>1.0210779645545183</v>
@@ -10394,19 +9991,16 @@
         <f t="shared" si="5"/>
         <v>3.7144724784139824</v>
       </c>
-      <c r="U178">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21">
+    </row>
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D179">
         <v>15</v>
@@ -10415,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G179">
         <v>1.15600947956746</v>
@@ -10455,19 +10049,16 @@
         <f t="shared" si="5"/>
         <v>5.9516064098671295</v>
       </c>
-      <c r="U179">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21">
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D180">
         <v>15</v>
@@ -10476,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G180">
         <v>1.4542504146736688</v>
@@ -10516,19 +10107,16 @@
         <f t="shared" si="5"/>
         <v>6.7709326001149819</v>
       </c>
-      <c r="U180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21">
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B181" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>15</v>
@@ -10537,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G181">
         <v>1.4117937794958482</v>
@@ -10577,51 +10165,48 @@
         <f t="shared" si="5"/>
         <v>4.0453218759582272</v>
       </c>
-      <c r="U181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21">
+    </row>
+    <row r="182" spans="1:18">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:18">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:18">
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:18">
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:18">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:18">
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:18">
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:18">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:18">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:18">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:18">
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
     </row>
@@ -11277,7 +10862,7 @@
       <c r="F361" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U181" xr:uid="{02AD4D05-27D1-B742-908C-2B53A12F0A39}"/>
+  <autoFilter ref="A1:T181" xr:uid="{02AD4D05-27D1-B742-908C-2B53A12F0A39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11286,8 +10871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07374C76-7F3C-4CE4-9CE0-8E9D1F397F28}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11372,100 +10957,100 @@
     </row>
     <row r="2" spans="1:21" ht="53.25">
       <c r="A2" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>398</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="53.25">
       <c r="B3" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="U3" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25">
       <c r="B4" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.25">
       <c r="C5" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
